--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="2240" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>文章标题</t>
     <rPh sb="0" eb="1">
@@ -262,14 +262,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第三名回答的浏览量增量=问题流量增量的20%；</t>
+    <t>……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三名回答的浏览量增量=问题流量增量的30%；</t>
     <rPh sb="1" eb="2">
       <t>san</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>……</t>
+    <t>总计</t>
+    <rPh sb="0" eb="1">
+      <t>zong jie</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ji suan</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -277,7 +287,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,8 +325,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="206"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +351,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +519,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -517,18 +548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,6 +556,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -820,7 +866,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,7 +879,7 @@
     <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -865,7 +911,7 @@
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -912,7 +958,7 @@
       <c r="C3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -947,7 +993,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
@@ -961,7 +1007,7 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
@@ -975,7 +1021,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
@@ -989,7 +1035,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
@@ -1003,7 +1049,7 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
@@ -1017,7 +1063,7 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1031,7 +1077,7 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1045,7 +1091,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
@@ -1059,7 +1105,7 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
@@ -1073,7 +1119,7 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
@@ -1087,7 +1133,7 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
@@ -1101,7 +1147,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
@@ -1115,7 +1161,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
@@ -1129,7 +1175,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
@@ -1143,7 +1189,7 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
@@ -1157,7 +1203,7 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
@@ -1171,7 +1217,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
@@ -1185,50 +1231,66 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18">
+        <f>SUM(F2:F21)</f>
+        <v>2171</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="24" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="H22" s="18">
+        <f>SUM(H2:H21)</f>
+        <v>243</v>
+      </c>
+      <c r="I22" s="21">
+        <f>SUM(I2:I21)</f>
+        <v>27</v>
+      </c>
+      <c r="J22" s="20">
+        <f>I22/F22</f>
+        <v>1.243666513127591E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="16" t="s">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>文章标题</t>
     <rPh sb="0" eb="1">
@@ -46,16 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转化率</t>
-    <rPh sb="0" eb="1">
-      <t>zhuan hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lü</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <rPh sb="0" eb="1">
       <t>xu hao</t>
@@ -124,29 +114,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Day5链接点击量</t>
-    <rPh sb="4" eb="5">
-      <t>lain jie</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5注册转化量</t>
-    <rPh sb="4" eb="5">
-      <t>zhu ce</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuan hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.jianshu.com/p/da44178a5813</t>
   </si>
   <si>
@@ -174,102 +141,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>说明：知乎无法直接查看阅读量，可通过观察右上角问题的浏览量的增量，来判断你文章的浏览量。</t>
-    <rPh sb="0" eb="1">
-      <t>shuo ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zhi hu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>wu fa</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>zhi jie</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>cha kan</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>liang</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>guan cha</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>you shang jiao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>de</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>liu lan liang</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>de</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>zeng liang</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>pan duan</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>wen z</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>de</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>liu lan liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>目前的一般情况是：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第一名回答的浏览量增量=问题流量增量的60%；</t>
-    <rPh sb="9" eb="10">
-      <t>zeng liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二名回答的浏览量增量=问题流量增量的40%；</t>
-    <rPh sb="1" eb="2">
-      <t>er</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三名回答的浏览量增量=问题流量增量的30%；</t>
-    <rPh sb="1" eb="2">
-      <t>san</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -279,6 +155,205 @@
     </rPh>
     <rPh sb="1" eb="2">
       <t>ji suan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5页面浏览量</t>
+    <rPh sb="4" eb="5">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu lan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day5注册转化次数</t>
+    <rPh sb="4" eb="5">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读-注册转化率</t>
+    <rPh sb="0" eb="1">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan hua</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名回答的阅读量增量=问题阅读增量的60%；</t>
+    <rPh sb="6" eb="7">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zeng liang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二名回答的阅读量增量=问题阅读增量的40%；</t>
+    <rPh sb="1" eb="2">
+      <t>er</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三名回答的阅读量增量=问题阅读增量的30%；</t>
+    <rPh sb="1" eb="2">
+      <t>san</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>yue du</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览-注册转化率</t>
+    <rPh sb="0" eb="1">
+      <t>liu lan liang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhuan hua lü</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <rPh sb="0" eb="1">
+      <t>shuo ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击链接了解《如何查看填写表格数据？》</t>
+    <rPh sb="0" eb="1">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian jei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>liao jei</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ru he</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>tian xie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>biao ge</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>知乎无法直接查看阅读量，可通过观察右上角问题的阅读量（浏览量）的增量，来判断你文章的阅读量。</t>
+    <rPh sb="0" eb="1">
+      <t>zhi hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wu fa</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi jie</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>cha kan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>liang</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>guan cha</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>you shang jiao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>de</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yue du liang</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>liu lan liang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>de</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zeng liang</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>lai</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>pan duan</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>wen z</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>yue du</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -287,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -340,6 +415,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -361,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -513,13 +597,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,11 +707,25 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -863,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,58 +1015,63 @@
     <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="4">
         <v>1056</v>
@@ -943,32 +1085,36 @@
       <c r="I2" s="4">
         <v>12</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="22">
+        <f>I2/H2</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="K2" s="7">
         <f>I2/F2</f>
         <v>1.1363636363636364E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9">
         <v>1115</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9">
         <v>115</v>
@@ -976,12 +1122,16 @@
       <c r="I3" s="9">
         <v>15</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="22">
+        <f>I3/H3</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="K3" s="7">
         <f>I3/F3</f>
         <v>1.3452914798206279E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -993,9 +1143,10 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J4" s="23"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1007,9 +1158,10 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="23"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1021,9 +1173,10 @@
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="23"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1035,9 +1188,10 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="23"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1049,9 +1203,10 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="23"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1063,9 +1218,10 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J9" s="23"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -1077,9 +1233,10 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="23"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -1091,9 +1248,10 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="23"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -1105,9 +1263,10 @@
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="23"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -1119,9 +1278,10 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="23"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -1133,9 +1293,10 @@
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="23"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -1147,9 +1308,10 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="23"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -1161,9 +1323,10 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J16" s="23"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -1175,9 +1338,10 @@
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" s="23"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -1189,9 +1353,10 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J18" s="23"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -1203,9 +1368,10 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J19" s="23"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -1217,9 +1383,10 @@
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="23"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -1231,11 +1398,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J21" s="23"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1246,7 +1414,7 @@
         <v>2171</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H22" s="18">
         <f>SUM(H2:H21)</f>
@@ -1256,41 +1424,55 @@
         <f>SUM(I2:I21)</f>
         <v>27</v>
       </c>
-      <c r="J22" s="20">
+      <c r="J22" s="24">
+        <f>I22/H22</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K22" s="20">
         <f>I22/F22</f>
         <v>1.243666513127591E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="15"/>
-    </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>24</v>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1480,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="B24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>文章标题</t>
     <rPh sb="0" eb="1">
@@ -141,14 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>目前的一般情况是：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <rPh sb="0" eb="1">
       <t>zong jie</t>
@@ -201,45 +193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第一名回答的阅读量增量=问题阅读增量的60%；</t>
-    <rPh sb="6" eb="7">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zeng liang</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yue du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二名回答的阅读量增量=问题阅读增量的40%；</t>
-    <rPh sb="1" eb="2">
-      <t>er</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yue du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三名回答的阅读量增量=问题阅读增量的30%；</t>
-    <rPh sb="1" eb="2">
-      <t>san</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>yue du</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>浏览-注册转化率</t>
     <rPh sb="0" eb="1">
       <t>liu lan liang</t>
@@ -284,76 +237,6 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>shu ju</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知乎无法直接查看阅读量，可通过观察右上角问题的阅读量（浏览量）的增量，来判断你文章的阅读量。</t>
-    <rPh sb="0" eb="1">
-      <t>zhi hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wu fa</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhi jie</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>cha kan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>liang</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ke</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>tong guo</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>guan cha</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>you shang jiao</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>wen ti</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>de</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>yue du liang</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>liu lan liang</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>de</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>zeng liang</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>lai</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>pan duan</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ni</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>wen z</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>de</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>yue du</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1003,7 +886,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1045,16 +928,16 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1403,7 +1286,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1435,45 +1318,31 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
+      <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B30" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -91,29 +91,6 @@
     <t>新媒体人必会的傻瓜式爬虫工具：上手 Web Scraper 的 5 个步骤</t>
   </si>
   <si>
-    <t>Day5文章阅读量</t>
-    <rPh sb="4" eb="5">
-      <t>wen zhang</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>yue du</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5知乎排名</t>
-    <rPh sb="4" eb="5">
-      <t>zhi hu</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>pai ming</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.jianshu.com/p/da44178a5813</t>
   </si>
   <si>
@@ -151,32 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Day5页面浏览量</t>
-    <rPh sb="4" eb="5">
-      <t>ye mian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>liu lan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>liang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day5注册转化次数</t>
-    <rPh sb="4" eb="5">
-      <t>zhu ce</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuan hua</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci shu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>阅读-注册转化率</t>
     <rPh sb="0" eb="1">
       <t>yue du</t>
@@ -237,6 +188,61 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>shu ju</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计5天文章阅读量</t>
+    <rPh sb="0" eb="1">
+      <t>lei ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen zhang</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yue du</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计5天知乎排名</t>
+    <rPh sb="4" eb="5">
+      <t>zhi hu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>pai ming</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计5天页面浏览量</t>
+    <rPh sb="4" eb="5">
+      <t>ye mian</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>liu lan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计5天注册转化次数</t>
+    <rPh sb="4" eb="5">
+      <t>zhu ce</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhuan hua</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ci shu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -886,7 +892,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -896,10 +902,10 @@
     <col min="3" max="3" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" style="16" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="16" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
@@ -922,22 +928,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -948,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
@@ -982,22 +988,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" s="9">
         <v>1115</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9">
         <v>115</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1297,7 +1303,7 @@
         <v>2171</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" s="18">
         <f>SUM(H2:H21)</f>
@@ -1318,10 +1324,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.2">

--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,9 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -892,7 +895,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/0-产品推广数据监测表-20170829.xlsx
+++ b/0-产品推广数据监测表-20170829.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,9 +16,6 @@
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -895,7 +892,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
